--- a/data/financial_statements/socf/DAL.xlsx
+++ b/data/financial_statements/socf/DAL.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -110,9 +230,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -165,12 +282,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -467,927 +581,948 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>828000000</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>280000000</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>-12385000000</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>4767000000</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>3935000000</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>3205000000</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>4195000000</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>4526000000</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>659000000</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>10540000000</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>554000000</v>
+      </c>
+      <c r="E3">
+        <v>506000000</v>
+      </c>
+      <c r="F3">
+        <v>1998000000</v>
+      </c>
+      <c r="I3">
+        <v>492000000</v>
+      </c>
+      <c r="J3">
+        <v>2312000000</v>
+      </c>
+      <c r="M3">
+        <v>678000000</v>
+      </c>
+      <c r="N3">
+        <v>2581000000</v>
+      </c>
+      <c r="R3">
+        <v>2329000000</v>
+      </c>
+      <c r="V3">
+        <v>2222000000</v>
+      </c>
+      <c r="Z3">
+        <v>1886000000</v>
+      </c>
+      <c r="AD3">
+        <v>1835000000</v>
+      </c>
+      <c r="AH3">
+        <v>1771000000</v>
+      </c>
+      <c r="AL3">
+        <v>1658000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4">
+        <v>457000000</v>
+      </c>
+      <c r="I4">
+        <v>847000000</v>
+      </c>
+      <c r="J4">
+        <v>3433000000</v>
+      </c>
+      <c r="M4">
+        <v>21000000</v>
+      </c>
+      <c r="N4">
+        <v>1535000000</v>
+      </c>
+      <c r="R4">
+        <v>1424000000</v>
+      </c>
+      <c r="V4">
+        <v>2242000000</v>
+      </c>
+      <c r="Z4">
+        <v>2118000000</v>
+      </c>
+      <c r="AD4">
+        <v>1180000000</v>
+      </c>
+      <c r="AH4">
+        <v>3732000000</v>
+      </c>
+      <c r="AL4">
+        <v>-7816000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5">
+        <v>-981000000</v>
+      </c>
+      <c r="J5">
+        <v>1168000000</v>
+      </c>
+      <c r="M5">
+        <v>682000000</v>
+      </c>
+      <c r="N5">
+        <v>-775000000</v>
+      </c>
+      <c r="R5">
+        <v>108000000</v>
+      </c>
+      <c r="V5">
+        <v>-428000000</v>
+      </c>
+      <c r="Z5">
+        <v>-134000000</v>
+      </c>
+      <c r="AD5">
+        <v>-56000000</v>
+      </c>
+      <c r="AH5">
+        <v>-302000000</v>
+      </c>
+      <c r="AL5">
+        <v>90000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6">
+        <v>-318000000</v>
+      </c>
+      <c r="I6">
+        <v>828000000</v>
+      </c>
+      <c r="J6">
+        <v>354000000</v>
+      </c>
+      <c r="K6">
+        <v>746000000</v>
+      </c>
+      <c r="L6">
+        <v>847000000</v>
+      </c>
+      <c r="M6">
+        <v>974000000</v>
+      </c>
+      <c r="N6">
+        <v>-139000000</v>
+      </c>
+      <c r="R6">
+        <v>324000000</v>
+      </c>
+      <c r="V6">
+        <v>-397000000</v>
+      </c>
+      <c r="Z6">
+        <v>-140000000</v>
+      </c>
+      <c r="AD6">
+        <v>155000000</v>
+      </c>
+      <c r="AH6">
+        <v>172000000</v>
+      </c>
+      <c r="AL6">
+        <v>-87000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7">
+        <v>1986000000</v>
+      </c>
+      <c r="I7">
+        <v>3432000000</v>
+      </c>
+      <c r="J7">
+        <v>240000000</v>
+      </c>
+      <c r="K7">
+        <v>2403000000</v>
+      </c>
+      <c r="L7">
+        <v>2332000000</v>
+      </c>
+      <c r="M7">
+        <v>3337000000</v>
+      </c>
+      <c r="N7">
+        <v>144000000</v>
+      </c>
+      <c r="R7">
+        <v>-418000000</v>
+      </c>
+      <c r="V7">
+        <v>955000000</v>
+      </c>
+      <c r="Z7">
+        <v>298000000</v>
+      </c>
+      <c r="AD7">
+        <v>-201000000</v>
+      </c>
+      <c r="AH7">
+        <v>-36000000</v>
+      </c>
+      <c r="AL7">
+        <v>80000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>-193000000</v>
+      </c>
+      <c r="E8">
+        <v>2205000000</v>
+      </c>
+      <c r="F8">
+        <v>-215000000</v>
+      </c>
+      <c r="I8">
+        <v>811000000</v>
+      </c>
+      <c r="J8">
+        <v>526000000</v>
+      </c>
+      <c r="M8">
+        <v>-897000000</v>
+      </c>
+      <c r="N8">
+        <v>68000000</v>
+      </c>
+      <c r="R8">
+        <v>-115000000</v>
+      </c>
+      <c r="V8">
+        <v>-2727000000</v>
+      </c>
+      <c r="Z8">
+        <v>-771000000</v>
+      </c>
+      <c r="AD8">
+        <v>331000000</v>
+      </c>
+      <c r="AH8">
+        <v>-1325000000</v>
+      </c>
+      <c r="AL8">
+        <v>87000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9">
+        <v>57000000</v>
+      </c>
+      <c r="I9">
+        <v>-282000000</v>
+      </c>
+      <c r="J9">
+        <v>559000000</v>
+      </c>
+      <c r="M9">
+        <v>408000000</v>
+      </c>
+      <c r="N9">
+        <v>244000000</v>
+      </c>
+      <c r="R9">
+        <v>-573000000</v>
+      </c>
+      <c r="V9">
+        <v>-49000000</v>
+      </c>
+      <c r="Z9">
+        <v>-237000000</v>
+      </c>
+      <c r="AD9">
+        <v>157000000</v>
+      </c>
+      <c r="AH9">
+        <v>276000000</v>
+      </c>
+      <c r="AL9">
+        <v>-48000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10">
+        <v>-3986000000</v>
+      </c>
+      <c r="C10">
+        <v>869000000</v>
+      </c>
+      <c r="D10">
+        <v>2535000000</v>
+      </c>
+      <c r="E10">
+        <v>1771000000</v>
+      </c>
+      <c r="F10">
+        <v>556000000</v>
+      </c>
+      <c r="G10">
+        <v>151000000</v>
+      </c>
+      <c r="H10">
+        <v>1866000000</v>
+      </c>
+      <c r="I10">
+        <v>691000000</v>
+      </c>
+      <c r="J10">
+        <v>-1286000000</v>
+      </c>
+      <c r="K10">
+        <v>-2575000000</v>
+      </c>
+      <c r="L10">
+        <v>-290000000</v>
+      </c>
+      <c r="M10">
+        <v>358000000</v>
+      </c>
+      <c r="N10">
+        <v>970000000</v>
+      </c>
+      <c r="O10">
+        <v>2244000000</v>
+      </c>
+      <c r="P10">
+        <v>3269000000</v>
+      </c>
+      <c r="Q10">
+        <v>1942000000</v>
+      </c>
+      <c r="R10">
+        <v>-4397000000</v>
+      </c>
+      <c r="S10">
+        <v>1499000000</v>
+      </c>
+      <c r="T10">
+        <v>2927000000</v>
+      </c>
+      <c r="U10">
+        <v>1343000000</v>
+      </c>
+      <c r="V10">
+        <v>1891000000</v>
+      </c>
+      <c r="W10">
+        <v>1593000000</v>
+      </c>
+      <c r="X10">
+        <v>2369000000</v>
+      </c>
+      <c r="Y10">
+        <v>-830000000</v>
+      </c>
+      <c r="Z10">
+        <v>1135000000</v>
+      </c>
+      <c r="AA10">
+        <v>1854000000</v>
+      </c>
+      <c r="AB10">
+        <v>3215000000</v>
+      </c>
+      <c r="AC10">
+        <v>1011000000</v>
+      </c>
+      <c r="AD10">
+        <v>1479000000</v>
+      </c>
+      <c r="AE10">
+        <v>2067000000</v>
+      </c>
+      <c r="AF10">
+        <v>2745000000</v>
+      </c>
+      <c r="AG10">
+        <v>1636000000</v>
+      </c>
+      <c r="AH10">
+        <v>582000000</v>
+      </c>
+      <c r="AI10">
+        <v>1358000000</v>
+      </c>
+      <c r="AJ10">
+        <v>2056000000</v>
+      </c>
+      <c r="AK10">
+        <v>951000000</v>
+      </c>
+      <c r="AL10">
+        <v>1131000000</v>
+      </c>
+      <c r="AM10">
+        <v>1161000000</v>
+      </c>
+      <c r="AN10">
+        <v>1208000000</v>
+      </c>
+      <c r="AO10">
+        <v>1004000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>1966000000</v>
+      </c>
+      <c r="C11">
+        <v>-1442000000</v>
+      </c>
+      <c r="D11">
+        <v>-958000000</v>
+      </c>
+      <c r="E11">
+        <v>-1766000000</v>
+      </c>
+      <c r="F11">
+        <v>-1218000000</v>
+      </c>
+      <c r="G11">
+        <v>-830000000</v>
+      </c>
+      <c r="H11">
+        <v>-761000000</v>
+      </c>
+      <c r="I11">
+        <v>-438000000</v>
+      </c>
+      <c r="J11">
+        <v>-548000000</v>
+      </c>
+      <c r="K11">
+        <v>-133000000</v>
+      </c>
+      <c r="L11">
+        <v>-281000000</v>
+      </c>
+      <c r="M11">
+        <v>-937000000</v>
+      </c>
+      <c r="N11">
+        <v>-1072000000</v>
+      </c>
+      <c r="O11">
+        <v>-944000000</v>
+      </c>
+      <c r="P11">
+        <v>-1560000000</v>
+      </c>
+      <c r="Q11">
+        <v>-1360000000</v>
+      </c>
+      <c r="R11">
+        <v>2540000000</v>
+      </c>
+      <c r="S11">
+        <v>-962000000</v>
+      </c>
+      <c r="T11">
+        <v>-1578000000</v>
+      </c>
+      <c r="U11">
+        <v>-1265000000</v>
+      </c>
+      <c r="V11">
+        <v>-1160000000</v>
+      </c>
+      <c r="W11">
+        <v>-941000000</v>
+      </c>
+      <c r="X11">
+        <v>-988000000</v>
+      </c>
+      <c r="Y11">
+        <v>-802000000</v>
+      </c>
+      <c r="Z11">
+        <v>-794000000</v>
+      </c>
+      <c r="AA11">
+        <v>-680000000</v>
+      </c>
+      <c r="AB11">
+        <v>-1046000000</v>
+      </c>
+      <c r="AC11">
+        <v>-871000000</v>
+      </c>
+      <c r="AD11">
+        <v>-878000000</v>
+      </c>
+      <c r="AE11">
+        <v>-562000000</v>
+      </c>
+      <c r="AF11">
+        <v>-919000000</v>
+      </c>
+      <c r="AG11">
+        <v>-586000000</v>
+      </c>
+      <c r="AH11">
+        <v>-660000000</v>
+      </c>
+      <c r="AI11">
+        <v>-457000000</v>
+      </c>
+      <c r="AJ11">
+        <v>-518000000</v>
+      </c>
+      <c r="AK11">
+        <v>-614000000</v>
+      </c>
+      <c r="AL11">
+        <v>-905000000</v>
+      </c>
+      <c r="AM11">
+        <v>-631000000</v>
+      </c>
+      <c r="AN11">
+        <v>-338000000</v>
+      </c>
+      <c r="AO11">
+        <v>-647000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12">
+        <v>-2099000000</v>
+      </c>
+      <c r="M12">
+        <v>-2099000000</v>
+      </c>
+      <c r="O12">
+        <v>-170000000</v>
+      </c>
+      <c r="AL12">
+        <v>-47000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13">
+        <v>-2363000000</v>
+      </c>
+      <c r="C13">
+        <v>769000000</v>
+      </c>
+      <c r="D13">
         <v>695000000</v>
       </c>
-      <c r="C2">
-        <v>735000000</v>
-      </c>
-      <c r="D2">
-        <v>-940000000</v>
-      </c>
-      <c r="E2">
-        <v>-408000000</v>
-      </c>
-      <c r="F2">
-        <v>1212000000</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>-12385000000</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>4767000000</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>3935000000</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>3205000000</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>4195000000</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>4526000000</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>659000000</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>10540000000</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>506000000</v>
-      </c>
-      <c r="E3">
-        <v>1998000000</v>
-      </c>
-      <c r="H3">
-        <v>492000000</v>
-      </c>
-      <c r="I3">
-        <v>2312000000</v>
-      </c>
-      <c r="L3">
-        <v>678000000</v>
-      </c>
-      <c r="M3">
-        <v>2581000000</v>
-      </c>
-      <c r="Q3">
-        <v>2329000000</v>
-      </c>
-      <c r="U3">
-        <v>2222000000</v>
-      </c>
-      <c r="Y3">
-        <v>1886000000</v>
-      </c>
-      <c r="AC3">
-        <v>1835000000</v>
-      </c>
-      <c r="AG3">
-        <v>1771000000</v>
-      </c>
-      <c r="AK3">
-        <v>1658000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>457000000</v>
-      </c>
-      <c r="H4">
-        <v>847000000</v>
-      </c>
-      <c r="I4">
-        <v>3433000000</v>
-      </c>
-      <c r="L4">
-        <v>21000000</v>
-      </c>
-      <c r="M4">
-        <v>1535000000</v>
-      </c>
-      <c r="Q4">
-        <v>1424000000</v>
-      </c>
-      <c r="U4">
-        <v>2242000000</v>
-      </c>
-      <c r="Y4">
-        <v>2118000000</v>
-      </c>
-      <c r="AC4">
-        <v>1180000000</v>
-      </c>
-      <c r="AG4">
-        <v>3732000000</v>
-      </c>
-      <c r="AK4">
-        <v>-7816000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>-981000000</v>
-      </c>
-      <c r="I5">
-        <v>1168000000</v>
-      </c>
-      <c r="L5">
-        <v>682000000</v>
-      </c>
-      <c r="M5">
-        <v>-775000000</v>
-      </c>
-      <c r="Q5">
-        <v>108000000</v>
-      </c>
-      <c r="U5">
-        <v>-428000000</v>
-      </c>
-      <c r="Y5">
-        <v>-134000000</v>
-      </c>
-      <c r="AC5">
-        <v>-56000000</v>
-      </c>
-      <c r="AG5">
-        <v>-302000000</v>
-      </c>
-      <c r="AK5">
-        <v>90000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>-318000000</v>
-      </c>
-      <c r="H6">
-        <v>828000000</v>
-      </c>
-      <c r="I6">
-        <v>354000000</v>
-      </c>
-      <c r="J6">
-        <v>746000000</v>
-      </c>
-      <c r="K6">
-        <v>847000000</v>
-      </c>
-      <c r="L6">
-        <v>974000000</v>
-      </c>
-      <c r="M6">
-        <v>-139000000</v>
-      </c>
-      <c r="Q6">
-        <v>324000000</v>
-      </c>
-      <c r="U6">
-        <v>-397000000</v>
-      </c>
-      <c r="Y6">
-        <v>-140000000</v>
-      </c>
-      <c r="AC6">
-        <v>155000000</v>
-      </c>
-      <c r="AG6">
-        <v>172000000</v>
-      </c>
-      <c r="AK6">
-        <v>-87000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>1986000000</v>
-      </c>
-      <c r="H7">
-        <v>3432000000</v>
-      </c>
-      <c r="I7">
-        <v>240000000</v>
-      </c>
-      <c r="J7">
-        <v>2403000000</v>
-      </c>
-      <c r="K7">
-        <v>2332000000</v>
-      </c>
-      <c r="L7">
-        <v>3337000000</v>
-      </c>
-      <c r="M7">
-        <v>144000000</v>
-      </c>
-      <c r="Q7">
-        <v>-418000000</v>
-      </c>
-      <c r="U7">
-        <v>955000000</v>
-      </c>
-      <c r="Y7">
-        <v>298000000</v>
-      </c>
-      <c r="AC7">
-        <v>-201000000</v>
-      </c>
-      <c r="AG7">
-        <v>-36000000</v>
-      </c>
-      <c r="AK7">
-        <v>80000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>2205000000</v>
-      </c>
-      <c r="E8">
-        <v>115000000</v>
-      </c>
-      <c r="H8">
-        <v>811000000</v>
-      </c>
-      <c r="I8">
-        <v>526000000</v>
-      </c>
-      <c r="L8">
-        <v>-897000000</v>
-      </c>
-      <c r="M8">
-        <v>68000000</v>
-      </c>
-      <c r="Q8">
-        <v>-115000000</v>
-      </c>
-      <c r="U8">
-        <v>-2727000000</v>
-      </c>
-      <c r="Y8">
-        <v>-771000000</v>
-      </c>
-      <c r="AC8">
-        <v>331000000</v>
-      </c>
-      <c r="AG8">
-        <v>-1325000000</v>
-      </c>
-      <c r="AK8">
-        <v>87000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>57000000</v>
-      </c>
-      <c r="H9">
-        <v>-282000000</v>
-      </c>
-      <c r="I9">
-        <v>559000000</v>
-      </c>
-      <c r="L9">
-        <v>408000000</v>
-      </c>
-      <c r="M9">
-        <v>244000000</v>
-      </c>
-      <c r="Q9">
-        <v>-573000000</v>
-      </c>
-      <c r="U9">
-        <v>-49000000</v>
-      </c>
-      <c r="Y9">
-        <v>-237000000</v>
-      </c>
-      <c r="AC9">
-        <v>157000000</v>
-      </c>
-      <c r="AG9">
-        <v>276000000</v>
-      </c>
-      <c r="AK9">
-        <v>-48000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>869000000</v>
-      </c>
-      <c r="C10">
-        <v>2535000000</v>
-      </c>
-      <c r="D10">
-        <v>1771000000</v>
-      </c>
-      <c r="E10">
-        <v>556000000</v>
-      </c>
-      <c r="F10">
-        <v>151000000</v>
-      </c>
-      <c r="G10">
-        <v>1866000000</v>
-      </c>
-      <c r="H10">
-        <v>691000000</v>
-      </c>
-      <c r="I10">
-        <v>-1286000000</v>
-      </c>
-      <c r="J10">
-        <v>-2575000000</v>
-      </c>
-      <c r="K10">
-        <v>-290000000</v>
-      </c>
-      <c r="L10">
-        <v>358000000</v>
-      </c>
-      <c r="M10">
-        <v>970000000</v>
-      </c>
-      <c r="N10">
-        <v>2244000000</v>
-      </c>
-      <c r="O10">
-        <v>3269000000</v>
-      </c>
-      <c r="P10">
-        <v>1942000000</v>
-      </c>
-      <c r="Q10">
-        <v>-4397000000</v>
-      </c>
-      <c r="R10">
-        <v>1499000000</v>
-      </c>
-      <c r="S10">
-        <v>2927000000</v>
-      </c>
-      <c r="T10">
-        <v>1343000000</v>
-      </c>
-      <c r="U10">
-        <v>1891000000</v>
-      </c>
-      <c r="V10">
-        <v>1593000000</v>
-      </c>
-      <c r="W10">
-        <v>2369000000</v>
-      </c>
-      <c r="X10">
-        <v>-830000000</v>
-      </c>
-      <c r="Y10">
-        <v>1135000000</v>
-      </c>
-      <c r="Z10">
-        <v>1854000000</v>
-      </c>
-      <c r="AA10">
-        <v>3215000000</v>
-      </c>
-      <c r="AB10">
-        <v>1011000000</v>
-      </c>
-      <c r="AC10">
-        <v>1479000000</v>
-      </c>
-      <c r="AD10">
-        <v>2067000000</v>
-      </c>
-      <c r="AE10">
-        <v>2745000000</v>
-      </c>
-      <c r="AF10">
-        <v>1636000000</v>
-      </c>
-      <c r="AG10">
-        <v>582000000</v>
-      </c>
-      <c r="AH10">
-        <v>1358000000</v>
-      </c>
-      <c r="AI10">
-        <v>2056000000</v>
-      </c>
-      <c r="AJ10">
-        <v>951000000</v>
-      </c>
-      <c r="AK10">
-        <v>1131000000</v>
-      </c>
-      <c r="AL10">
-        <v>1161000000</v>
-      </c>
-      <c r="AM10">
-        <v>1208000000</v>
-      </c>
-      <c r="AN10">
-        <v>1004000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>-1442000000</v>
-      </c>
-      <c r="C11">
-        <v>-958000000</v>
-      </c>
-      <c r="D11">
-        <v>-1766000000</v>
-      </c>
-      <c r="E11">
-        <v>-1218000000</v>
-      </c>
-      <c r="F11">
-        <v>-830000000</v>
-      </c>
-      <c r="G11">
-        <v>-761000000</v>
-      </c>
-      <c r="H11">
-        <v>-438000000</v>
-      </c>
-      <c r="I11">
-        <v>-548000000</v>
-      </c>
-      <c r="J11">
-        <v>-133000000</v>
-      </c>
-      <c r="K11">
-        <v>-281000000</v>
-      </c>
-      <c r="L11">
-        <v>-937000000</v>
-      </c>
-      <c r="M11">
-        <v>-1072000000</v>
-      </c>
-      <c r="N11">
-        <v>-944000000</v>
-      </c>
-      <c r="O11">
-        <v>-1560000000</v>
-      </c>
-      <c r="P11">
-        <v>-1360000000</v>
-      </c>
-      <c r="Q11">
-        <v>2540000000</v>
-      </c>
-      <c r="R11">
-        <v>-962000000</v>
-      </c>
-      <c r="S11">
-        <v>-1578000000</v>
-      </c>
-      <c r="T11">
-        <v>-1265000000</v>
-      </c>
-      <c r="U11">
-        <v>-1160000000</v>
-      </c>
-      <c r="V11">
-        <v>-941000000</v>
-      </c>
-      <c r="W11">
-        <v>-988000000</v>
-      </c>
-      <c r="X11">
-        <v>-802000000</v>
-      </c>
-      <c r="Y11">
-        <v>-794000000</v>
-      </c>
-      <c r="Z11">
-        <v>-680000000</v>
-      </c>
-      <c r="AA11">
-        <v>-1046000000</v>
-      </c>
-      <c r="AB11">
-        <v>-871000000</v>
-      </c>
-      <c r="AC11">
-        <v>-878000000</v>
-      </c>
-      <c r="AD11">
-        <v>-562000000</v>
-      </c>
-      <c r="AE11">
-        <v>-919000000</v>
-      </c>
-      <c r="AF11">
-        <v>-586000000</v>
-      </c>
-      <c r="AG11">
-        <v>-660000000</v>
-      </c>
-      <c r="AH11">
-        <v>-457000000</v>
-      </c>
-      <c r="AI11">
-        <v>-518000000</v>
-      </c>
-      <c r="AJ11">
-        <v>-614000000</v>
-      </c>
-      <c r="AK11">
-        <v>-905000000</v>
-      </c>
-      <c r="AL11">
-        <v>-631000000</v>
-      </c>
-      <c r="AM11">
-        <v>-338000000</v>
-      </c>
-      <c r="AN11">
-        <v>-647000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12">
-        <v>-2099000000</v>
-      </c>
-      <c r="L12">
-        <v>-2099000000</v>
-      </c>
-      <c r="N12">
-        <v>-170000000</v>
-      </c>
-      <c r="AK12">
-        <v>-47000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>769000000</v>
-      </c>
-      <c r="C13">
-        <v>695000000</v>
-      </c>
-      <c r="D13">
+      <c r="E13">
         <v>1120000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-9777000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>11251000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>697000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>210000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-746000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-745000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-4301000000</v>
-      </c>
-      <c r="M13">
-        <v>206000000</v>
       </c>
       <c r="N13">
         <v>206000000</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>206000000</v>
       </c>
       <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>206000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>18000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>42000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>303000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>132000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>94000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>-567000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>1023000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>-1095000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>1539000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>-488000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>729000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>289000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>-394000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>115000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>-894000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>251000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>8000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>17000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>87000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>46000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>-2118000000</v>
+      </c>
+      <c r="C14">
         <v>-628000000</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
       <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>-100000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-10799000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-3161000000</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
       <c r="J14">
         <v>0</v>
       </c>
@@ -1395,438 +1530,447 @@
         <v>0</v>
       </c>
       <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>-2099000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>-97000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>89000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>117000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>-63000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>300000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>-450000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>-480000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>563000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>-878000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>-1619000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>753000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>-779000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>-719000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>-344000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>-262000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>493000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>-240000000</v>
       </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
         <v>-360000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-32000000</v>
       </c>
       <c r="C15">
-        <v>97000000</v>
+        <v>13000000</v>
       </c>
       <c r="D15">
-        <v>-16000000</v>
+        <v>111000000</v>
       </c>
       <c r="E15">
-        <v>-302000000</v>
+        <v>-3000000</v>
       </c>
       <c r="F15">
-        <v>-19000000</v>
+        <v>-284000000</v>
       </c>
       <c r="G15">
+        <v>-6000000</v>
+      </c>
+      <c r="H15">
         <v>90000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>168000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>246000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-266000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>507000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>65000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>13000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>-99000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>86000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>58000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-49000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>17000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>32000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>38000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>173000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>32000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>34000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>-28000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>216000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>22000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>14000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>5000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>-251000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>14000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>3000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>-10000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>21000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>-3000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>40000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>-4000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>-3000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>50000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>-29000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>-2547000000</v>
+      </c>
+      <c r="C16">
         <v>-1288000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-152000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-749000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-480000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-384000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>26000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-60000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-1048000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-1144000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>-4075000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>-2971000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-780000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>-1124000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>-1563000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-1096000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>2446000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>-903000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>-1543000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>-927000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>-1305000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>-1295000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>-958000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>-1708000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>445000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>-887000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>-1112000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>-601000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>-1179000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>-1009000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>-955000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>-812000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>-38000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>-1583000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>-279000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>-563000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>-948000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>-617000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>-561000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>-630000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>3905000000</v>
+      </c>
+      <c r="C17">
         <v>-1795000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-952000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-1443000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-1149000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-1552000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-380000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-851000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-5932000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>10128000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>7690000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>5606000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1042000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>-355000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>-1165000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>965000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-627000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-648000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>1275000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-244000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>11000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-255000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-276000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>1716000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>-306000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>-254000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>-758000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>59000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>-478000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>-520000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>-333000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>-260000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>-403000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>-301000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>-851000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>-353000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>-293000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>-279000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>-322000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>-299000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1835,93 +1979,93 @@
         <v>0</v>
       </c>
       <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>-344000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-225000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>-209000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>-268000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-1325000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>925000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>-325000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>-600000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>-325000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-327000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>-550000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>-600000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>-200000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>-300000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>-500000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>-1026000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>-775000000</v>
-      </c>
-      <c r="AC18">
-        <v>-425000000</v>
       </c>
       <c r="AD18">
         <v>-425000000</v>
       </c>
       <c r="AE18">
+        <v>-425000000</v>
+      </c>
+      <c r="AF18">
         <v>-925000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>-425000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>-500000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>-250000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>-225000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>-125000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>-157000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>-93000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1930,67 +2074,67 @@
         <v>0</v>
       </c>
       <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>-260000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-259000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>-260000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>-228000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-233000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>453000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>-240000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>-213000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>-217000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-215000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-219000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>-148000000</v>
-      </c>
-      <c r="X19">
-        <v>-149000000</v>
       </c>
       <c r="Y19">
         <v>-149000000</v>
       </c>
       <c r="Z19">
+        <v>-149000000</v>
+      </c>
+      <c r="AA19">
         <v>-150000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>-103000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>-107000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>-105000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>-107000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>-72000000</v>
-      </c>
-      <c r="AF19">
-        <v>-75000000</v>
       </c>
       <c r="AG19">
         <v>-75000000</v>
@@ -1999,10 +2143,10 @@
         <v>-75000000</v>
       </c>
       <c r="AI19">
+        <v>-75000000</v>
+      </c>
+      <c r="AJ19">
         <v>-50000000</v>
-      </c>
-      <c r="AJ19">
-        <v>-51000000</v>
       </c>
       <c r="AK19">
         <v>-51000000</v>
@@ -2010,389 +2154,401 @@
       <c r="AL19">
         <v>-51000000</v>
       </c>
+      <c r="AM19">
+        <v>-51000000</v>
+      </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>20000000</v>
+      </c>
+      <c r="C20">
         <v>-13000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-14000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-13000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-18000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-13000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>50000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>61000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-25000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>119000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>2032000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>342000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>284000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>-627000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>-1000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-16000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>34000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>5000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>-68000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>-1000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>281000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-62000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>-50000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>313000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>309000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>-87000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>-262000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>149000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>311000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>70000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>-289000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>-30000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>12000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>-1000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>12000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>-4000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>144000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>-68000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>4000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>145000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>3925000000</v>
+      </c>
+      <c r="C21">
         <v>-1808000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-966000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-1456000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-1167000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-1565000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-330000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-790000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-5957000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>10247000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>9722000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>5344000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>842000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>-1451000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>-1662000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-609000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>785000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>-1208000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>394000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>-787000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>-250000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-1086000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>-1074000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>1680000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>-446000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>-991000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>-2149000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>-674000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>-697000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>-982000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>-1619000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>-790000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>-966000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>-627000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>-1114000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>-533000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>-357000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>-491000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>-318000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>-154000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>-2608000000</v>
+      </c>
+      <c r="C22">
         <v>-2227000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>1417000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>-434000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-1091000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-1798000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1562000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-159000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-8291000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>6528000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>5357000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>2731000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>1032000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>-331000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>44000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>237000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>-1166000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>-612000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>1778000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>-371000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>336000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>-788000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>337000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>-858000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>1134000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>-24000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>-46000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>-264000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>-397000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>76000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>171000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>34000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>-422000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>-852000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>663000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>-145000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>-174000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>53000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>329000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>220000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-1244000000</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>8569000000</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
       <c r="F23">
         <v>0</v>
       </c>
@@ -2400,11 +2556,11 @@
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>10055000000</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
       <c r="J23">
         <v>0</v>
       </c>
@@ -2412,11 +2568,11 @@
         <v>0</v>
       </c>
       <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
         <v>3730000000</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
       <c r="N23">
         <v>0</v>
       </c>
@@ -2424,11 +2580,11 @@
         <v>0</v>
       </c>
       <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>2748000000</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
       <c r="R23">
         <v>0</v>
       </c>
@@ -2436,11 +2592,11 @@
         <v>0</v>
       </c>
       <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
         <v>1853000000</v>
       </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
       <c r="V23">
         <v>0</v>
       </c>
@@ -2448,23 +2604,23 @@
         <v>0</v>
       </c>
       <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
         <v>2826000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>54000000</v>
       </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
       <c r="AA23">
         <v>0</v>
       </c>
       <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
         <v>1972000000</v>
       </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
       <c r="AD23">
         <v>0</v>
       </c>
@@ -2472,11 +2628,11 @@
         <v>0</v>
       </c>
       <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
         <v>2088000000</v>
       </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
       <c r="AH23">
         <v>0</v>
       </c>
@@ -2484,11 +2640,11 @@
         <v>0</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
         <v>2844000000</v>
       </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
       <c r="AL23">
         <v>0</v>
       </c>
@@ -2496,134 +2652,140 @@
         <v>0</v>
       </c>
       <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
         <v>2416000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>-3852000000</v>
+      </c>
+      <c r="C24">
         <v>-2227000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>1417000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>8135000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-1091000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-1798000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1562000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>9896000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>-8291000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>6528000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>5357000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>6461000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>1032000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>-331000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>44000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>2985000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>-1166000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>-612000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>1778000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>1482000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>336000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>-788000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>337000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>1968000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>1188000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>-24000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>-46000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>1708000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>-397000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>76000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>171000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>2122000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>-422000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>-852000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>663000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>2699000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>-174000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>53000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>329000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>2636000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2656,67 +2818,67 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>-260000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>-259000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>-260000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>-228000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>-233000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>453000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>-240000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>-213000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>-217000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>-215000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>-219000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>-148000000</v>
-      </c>
-      <c r="X25">
-        <v>-149000000</v>
       </c>
       <c r="Y25">
         <v>-149000000</v>
       </c>
       <c r="Z25">
+        <v>-149000000</v>
+      </c>
+      <c r="AA25">
         <v>-150000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>-103000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>-107000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>-105000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>-107000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>-72000000</v>
-      </c>
-      <c r="AF25">
-        <v>-75000000</v>
       </c>
       <c r="AG25">
         <v>-75000000</v>
@@ -2725,10 +2887,10 @@
         <v>-75000000</v>
       </c>
       <c r="AI25">
+        <v>-75000000</v>
+      </c>
+      <c r="AJ25">
         <v>-50000000</v>
-      </c>
-      <c r="AJ25">
-        <v>-51000000</v>
       </c>
       <c r="AK25">
         <v>-51000000</v>
@@ -2737,303 +2899,312 @@
         <v>-51000000</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>-51000000</v>
       </c>
       <c r="AN25">
         <v>0</v>
       </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
-        <v>1.2467</v>
+        <v>0.7929</v>
       </c>
       <c r="C26">
-        <v>1.1712</v>
+        <v>0.8303</v>
       </c>
       <c r="D26">
-        <v>0.9274</v>
+        <v>0.7612</v>
       </c>
       <c r="E26">
-        <v>0.9318</v>
+        <v>0.619</v>
       </c>
       <c r="F26">
-        <v>0.7675</v>
+        <v>0.6277</v>
       </c>
       <c r="G26">
+        <v>0.5385</v>
+      </c>
+      <c r="H26">
         <v>0.5014999999999999</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>0.4888</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.6153999999999999</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>0.6872</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>0.5038</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0.607</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>0.2174</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>0.2209</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>0.2125</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>0.2552</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>0.238</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>0.1914</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>0.2161</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>0.1826</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.1516</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.1851</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.154</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>0.1966</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>0.1099</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>0.1515</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>0.1757</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>0.147</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>0.1211</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>0.1411</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>0.1658</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>0.1631</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>0.1566</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>0.1867</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>0.1879</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>0.2483</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>0.3244</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>0.3841</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>0.4937</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>0.6117</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27">
+        <v>-193000000</v>
+      </c>
+      <c r="E27">
         <v>2205000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>472000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>811000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>2288000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>-215000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-702000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>-101000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-2597000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>-747000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>229000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>-1491000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>170000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>-4481000000</v>
+      </c>
+      <c r="C28">
         <v>141000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>695000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1020000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1022000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>452000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>697000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>210000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-746000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-745000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-4301000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-2099000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>109000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>89000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>-89000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>206000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-45000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>42000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>3000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>300000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-318000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-386000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-4000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>-878000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>1023000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>-229000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>-80000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>265000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>-50000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-430000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>-50000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-229000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>632000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>-1147000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>242000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>11000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>8000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>17000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>-273000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>46000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3042,93 +3213,93 @@
         <v>0</v>
       </c>
       <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
         <v>-344000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>-225000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>-209000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-268000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-1325000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>925000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>-325000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>-600000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>-325000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-327000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>-550000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-600000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>-200000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>-300000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>-500000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>-1026000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>-775000000</v>
-      </c>
-      <c r="AC29">
-        <v>-425000000</v>
       </c>
       <c r="AD29">
         <v>-425000000</v>
       </c>
       <c r="AE29">
+        <v>-425000000</v>
+      </c>
+      <c r="AF29">
         <v>-925000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>-425000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>-500000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>-250000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>-225000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>-125000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>-157000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>-93000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3137,84 +3308,87 @@
         <v>0</v>
       </c>
       <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
         <v>-344000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>-225000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>-209000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>-268000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>-1325000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>925000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>-325000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>-600000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>-325000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-327000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>-550000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-600000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>-200000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>-300000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>-500000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>-1026000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>-775000000</v>
-      </c>
-      <c r="AC30">
-        <v>-425000000</v>
       </c>
       <c r="AD30">
         <v>-425000000</v>
       </c>
       <c r="AE30">
+        <v>-425000000</v>
+      </c>
+      <c r="AF30">
         <v>-925000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>-425000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>-500000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>-250000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>-225000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>-125000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>-157000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>-93000000</v>
       </c>
     </row>
